--- a/БЖД/Практические/Практическая 1.xlsx
+++ b/БЖД/Практические/Практическая 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Технолог-Учеба\labwork_2021\БЖД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Технолог-Учеба\labwork_2021\БЖД\Практические\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Радиус зоны бризантного поражения</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Оценка размера зоны ЧС</t>
   </si>
   <si>
-    <t>Вместимость при групповом хранении</t>
-  </si>
-  <si>
     <t>Радиус зоны действия продуктов взрыва (на границе огненного шара)</t>
   </si>
   <si>
@@ -266,10 +263,7 @@
     <t>Вывод</t>
   </si>
   <si>
-    <t>Таким образом, чтобы избежать взрыва, следует предпринять следующие профилактические меры</t>
-  </si>
-  <si>
-    <t>Таким образом, чтобы справиться с последствиями взрыва следует предпринять следующие меры</t>
+    <t xml:space="preserve">Таким образом, чтобы избежать взрыва, следует предпринять следующие профилактические меры - расположить взрывоопасный объект как можно дальше от остальных объектов, тем самым уменьшить радиус распространения волны взрыва.  Кроме того можно предпложить одиночное хранения вместо группового. Исправление последствий взрыва потребует привлечение дополнительных человеческих ресурсов. </t>
   </si>
 </sst>
 </file>
@@ -334,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -376,6 +370,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -391,7 +388,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:G62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -688,28 +685,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -724,12 +721,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -771,9 +768,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="B7" s="2">
         <v>0.9</v>
       </c>
@@ -786,15 +781,15 @@
       <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -813,7 +808,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
         <f>1.7*B10</f>
@@ -823,12 +818,12 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5">
         <f>1.34*$B$10*((((233/B20)+1)^2)-1)^(1/3)</f>
@@ -843,7 +838,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5">
         <f>1.34*$B$10*((((233/B21)+1)^2)-1)^(1/3)</f>
@@ -853,12 +848,12 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5">
         <f>1.34*$B$10*((((233/B22)+1)^2)-1)^(1/3)</f>
@@ -868,12 +863,12 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
         <f>1.34*$B$10*((((233/B23)+1)^2)-1)^(1/3)</f>
@@ -883,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -896,7 +891,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>1750</v>
@@ -905,12 +900,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <f>1300*((B10/B11))^3+50</f>
@@ -920,12 +915,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="10">
         <v>100</v>
@@ -934,12 +929,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="10">
         <v>60</v>
@@ -948,12 +943,12 @@
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
         <v>40</v>
@@ -963,13 +958,13 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6">
         <v>10</v>
@@ -978,78 +973,80 @@
         <v>5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="C28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>2200</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="12">
         <f>($B$11^2*B12)/((($B$11^2+B12^2)^3)^(1/2))</f>
         <v>0.221062003416753</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="12">
         <f>1-0.058*LN(B12)</f>
@@ -1058,14 +1055,14 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="12">
         <f>($B$11^2*B13)/((($B$11^2+B13^2)^3)^(1/2))</f>
         <v>0.15208547522601251</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="12">
         <f>1-0.058*LN(B13)</f>
@@ -1074,14 +1071,14 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="12">
         <f>($B$11^2*B14)/((($B$11^2+B14^2)^3)^(1/2))</f>
         <v>0.10554780168475923</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="12">
         <f>1-0.058*LN(B14)</f>
@@ -1090,14 +1087,14 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="12">
         <f>($B$11^2*B15)/((($B$11^2+B15^2)^3)^(1/2))</f>
         <v>2.2128837499169156E-2</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="12">
         <f>1-0.058*LN(B15)</f>
@@ -1106,13 +1103,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
         <f>$B$31*B32*D32</f>
@@ -1121,7 +1118,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" ref="B38:B40" si="0">$B$31*B33*D33</f>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
@@ -1151,7 +1148,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2">
         <f>0.45/0.85*D7^(1/3)</f>
@@ -1160,12 +1157,12 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="12">
         <f>B37*$B$42</f>
@@ -1174,7 +1171,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="12">
         <f t="shared" ref="B45:B47" si="1">B38*$B$42</f>
@@ -1183,7 +1180,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="12">
         <f t="shared" si="1"/>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="12">
         <f t="shared" si="1"/>
@@ -1200,50 +1197,50 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2">
         <f>1.15+0.1*18</f>
         <v>2.95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="15">
         <f>3*B51*D7^(2/3)</f>
         <v>13743.928446119589</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="15">
-        <f>(3/4)*B52</f>
-        <v>10307.946334589691</v>
+        <f>3*B52</f>
+        <v>41231.785338358764</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1251,87 +1248,84 @@
     </row>
     <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B55:G58"/>
-    <mergeCell ref="B59:G62"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B55:G60"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/БЖД/Практические/Практическая 1.xlsx
+++ b/БЖД/Практические/Практическая 1.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Радиус зоны бризантного поражения</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">Таким образом, чтобы избежать взрыва, следует предпринять следующие профилактические меры - расположить взрывоопасный объект как можно дальше от остальных объектов, тем самым уменьшить радиус распространения волны взрыва.  Кроме того можно предпложить одиночное хранения вместо группового. Исправление последствий взрыва потребует привлечение дополнительных человеческих ресурсов. </t>
+  </si>
+  <si>
+    <t>Избыточное давление</t>
   </si>
 </sst>
 </file>
@@ -370,6 +373,15 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -380,15 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -685,28 +688,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -721,12 +724,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -781,15 +784,15 @@
       <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -882,8 +885,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="5">
+        <f>1300*((B10/B11)^3)+50</f>
+        <v>314.60411154081009</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -977,15 +985,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
@@ -1007,11 +1015,11 @@
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -1020,11 +1028,11 @@
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
@@ -1197,15 +1205,15 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
@@ -1250,70 +1258,70 @@
       <c r="A55" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/БЖД/Практические/Практическая 1.xlsx
+++ b/БЖД/Практические/Практическая 1.xlsx
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -773,11 +773,11 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="2">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="2">
         <f>D6*B7</f>
-        <v>61200</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
       </c>
       <c r="B10" s="5">
         <f>1.75*((D6*B7)^(1/3))</f>
-        <v>68.963906769145666</v>
+        <v>56.693206522355972</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="B11" s="5">
         <f>1.7*B10</f>
-        <v>117.23864150754763</v>
+        <v>96.37845108800515</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="B12" s="5">
         <f>1.34*$B$10*((((233/B20)+1)^2)-1)^(1/3)</f>
-        <v>199.68307697562543</v>
+        <v>215.56513873515388</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="B13" s="5">
         <f>1.34*$B$10*((((233/B21)+1)^2)-1)^(1/3)</f>
-        <v>262.22214339820192</v>
+        <v>271.37046450913942</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="B14" s="5">
         <f>1.34*$B$10*((((233/B22)+1)^2)-1)^(1/3)</f>
-        <v>330.10599615543362</v>
+        <v>411.58102554785364</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="B15" s="5">
         <f>1.34*$B$10*((((233/B23)+1)^2)-1)^(1/3)</f>
-        <v>774.85207758232445</v>
+        <v>636.98318318452641</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -931,7 +931,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -945,7 +945,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -959,7 +959,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -1050,15 +1050,15 @@
         <v>45</v>
       </c>
       <c r="B32" s="12">
-        <f>($B$11^2*B12)/((($B$11^2+B12^2)^3)^(1/2))</f>
-        <v>0.221062003416753</v>
+        <f>($B$11^2*B12)/((($B$11*$B$11+B12*B12)^3)^(1/2))</f>
+        <v>0.1520854752260126</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="12">
         <f>1-0.058*LN(B12)</f>
-        <v>0.69278957331344837</v>
+        <v>0.68835073835660876</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1066,15 +1066,15 @@
         <v>46</v>
       </c>
       <c r="B33" s="12">
-        <f>($B$11^2*B13)/((($B$11^2+B13^2)^3)^(1/2))</f>
-        <v>0.15208547522601251</v>
+        <f t="shared" ref="B33:B35" si="0">($B$11^2*B13)/((($B$11*$B$11+B13*B13)^3)^(1/2))</f>
+        <v>0.10554780168475922</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="12">
         <f>1-0.058*LN(B13)</f>
-        <v>0.67698686283516785</v>
+        <v>0.67499787492669383</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1082,15 +1082,15 @@
         <v>47</v>
       </c>
       <c r="B34" s="12">
-        <f>($B$11^2*B14)/((($B$11^2+B14^2)^3)^(1/2))</f>
-        <v>0.10554780168475923</v>
+        <f t="shared" si="0"/>
+        <v>5.0614281056917156E-2</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="12">
         <f>1-0.058*LN(B14)</f>
-        <v>0.66363399940525292</v>
+        <v>0.65083965758857631</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1098,15 +1098,15 @@
         <v>48</v>
       </c>
       <c r="B35" s="12">
-        <f>($B$11^2*B15)/((($B$11^2+B15^2)^3)^(1/2))</f>
-        <v>2.2128837499169156E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.2128837499169149E-2</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="12">
         <f>1-0.058*LN(B15)</f>
-        <v>0.61414501567699464</v>
+        <v>0.62550889119843567</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B37" s="2">
         <f>$B$31*B32*D32</f>
-        <v>336.92879225039843</v>
+        <v>230.31392816331129</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1129,8 +1129,8 @@
         <v>50</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" ref="B38:B40" si="0">$B$31*B33*D33</f>
-        <v>226.51171126331849</v>
+        <f t="shared" ref="B38:B40" si="1">$B$31*B33*D33</f>
+        <v>156.73799204887248</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1138,8 +1138,8 @@
         <v>51</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>154.09924147307638</v>
+        <f t="shared" si="1"/>
+        <v>72.47191897478703</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1147,8 +1147,8 @@
         <v>52</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>29.898693556249999</v>
+        <f t="shared" si="1"/>
+        <v>30.451926136754448</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,8 +1159,8 @@
         <v>58</v>
       </c>
       <c r="B42" s="2">
-        <f>0.45/0.85*D7^(1/3)</f>
-        <v>20.863030619237346</v>
+        <f>0.45*D7^(1/3)/0.85</f>
+        <v>17.150886006763152</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B44" s="12">
         <f>B37*$B$42</f>
-        <v>7029.3557092227211</v>
+        <v>3950.0879276987894</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1182,8 +1182,8 @@
         <v>54</v>
       </c>
       <c r="B45" s="12">
-        <f t="shared" ref="B45:B47" si="1">B38*$B$42</f>
-        <v>4725.7207677024626</v>
+        <f t="shared" ref="B45:B47" si="2">B38*$B$42</f>
+        <v>2688.1954345591612</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1191,8 +1191,8 @@
         <v>55</v>
       </c>
       <c r="B46" s="12">
-        <f t="shared" si="1"/>
-        <v>3214.977193254042</v>
+        <f t="shared" si="2"/>
+        <v>1242.9576210279479</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1200,8 +1200,8 @@
         <v>56</v>
       </c>
       <c r="B47" s="12">
-        <f t="shared" si="1"/>
-        <v>623.777359139238</v>
+        <f t="shared" si="2"/>
+        <v>522.277513857847</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B52" s="15">
         <f>3*B51*D7^(2/3)</f>
-        <v>13743.928446119589</v>
+        <v>9288.1498913340674</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>64</v>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B53" s="15">
         <f>3*B52</f>
-        <v>41231.785338358764</v>
+        <v>27864.4496740022</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>64</v>
